--- a/regions/11/soflis meurneoba/3. pirutkvis suladoba.xlsx
+++ b/regions/11/soflis meurneoba/3. pirutkvis suladoba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\მცხეთა-მთიანეთი\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\მცხეთა-მთიანეთი\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -187,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -220,15 +220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -256,7 +247,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -275,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -596,7 +587,7 @@
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1">
+    <row r="1" spans="1:19" ht="30" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -616,8 +607,10 @@
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="2">
         <v>2006</v>
@@ -667,8 +660,14 @@
       <c r="Q2" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="R2" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -720,8 +719,14 @@
       <c r="Q3" s="3">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+      <c r="R3" s="3">
+        <v>27.3</v>
+      </c>
+      <c r="S3" s="3">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -773,8 +778,14 @@
       <c r="Q4" s="3">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="R4" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="S4" s="3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -826,8 +837,12 @@
       <c r="Q5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+      <c r="R5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -879,8 +894,12 @@
       <c r="Q6" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="R6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -932,8 +951,14 @@
       <c r="Q7" s="3">
         <v>60.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="R7" s="3">
+        <v>56.1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -985,8 +1010,14 @@
       <c r="Q8" s="3">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+      <c r="R8" s="3">
+        <v>41.4</v>
+      </c>
+      <c r="S8" s="3">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1038,8 +1069,14 @@
       <c r="Q9" s="3">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="R9" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1091,8 +1128,14 @@
       <c r="Q10" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="R10" s="3">
+        <v>2</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1144,8 +1187,14 @@
       <c r="Q11" s="3">
         <v>336.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="R11" s="3">
+        <v>324.2</v>
+      </c>
+      <c r="S11" s="3">
+        <v>167.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1197,8 +1246,12 @@
       <c r="Q12" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="R12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
@@ -1219,7 +1272,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1247,9 +1300,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
